--- a/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-12-2023.xlsx
+++ b/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-12-2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>NUC</t>
   </si>
@@ -41,7 +41,7 @@
     <t>MP</t>
   </si>
   <si>
-    <t>Enviadas a Litigacion</t>
+    <t>Archivo Temporal</t>
   </si>
   <si>
     <t>No Detenido</t>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>Ricardo Talavera Rivera</t>
+  </si>
+  <si>
+    <t>Mediacion</t>
+  </si>
+  <si>
+    <t>Abierto/Reiniciado</t>
+  </si>
+  <si>
+    <t>Enviadas a Litigacion</t>
+  </si>
+  <si>
+    <t>No Ejercicio de la accion penal</t>
   </si>
   <si>
     <t>Unidad de Investigación Coalcomán</t>
@@ -440,7 +452,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -484,7 +496,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3">
-        <v>1008202235443</v>
+        <v>1008202149959</v>
       </c>
       <c r="B2">
         <v>2023</v>
@@ -510,7 +522,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>1008202347909</v>
+        <v>1008202346592</v>
       </c>
       <c r="B3">
         <v>2023</v>
@@ -536,7 +548,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
-        <v>1008202347538</v>
+        <v>1008202342923</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -545,24 +557,24 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
-        <v>1008202244701</v>
+        <v>1008202340460</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -577,18 +589,18 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
-        <v>1008202242315</v>
+        <v>1008202347331</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -597,24 +609,24 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
-        <v>1008202242315</v>
+        <v>1008202340452</v>
       </c>
       <c r="B7">
         <v>2023</v>
@@ -629,39 +641,1833 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
+        <v>1008202310648</v>
+      </c>
+      <c r="B8">
+        <v>2023</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>1008202345953</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>1008202310648</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>1008202347909</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>1008202349173</v>
+      </c>
+      <c r="B12">
+        <v>2023</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>1008202344136</v>
+      </c>
+      <c r="B13">
+        <v>2023</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>1008202348811</v>
+      </c>
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>1008202329990</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>1008202235443</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>1008202344795</v>
+      </c>
+      <c r="B17">
+        <v>2023</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>1008202348899</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>1008202344549</v>
+      </c>
+      <c r="B19">
+        <v>2023</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>1008202343313</v>
+      </c>
+      <c r="B20">
+        <v>2023</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>1008202344549</v>
+      </c>
+      <c r="B21">
+        <v>2023</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>1008202347538</v>
+      </c>
+      <c r="B22">
+        <v>2023</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>1008202336281</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>1008202345630</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3">
+        <v>1008202346306</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>1008202348563</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>1008202345678</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>1008202345630</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>1008202345630</v>
+      </c>
+      <c r="B29">
+        <v>2023</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>1008202347922</v>
+      </c>
+      <c r="B30">
+        <v>2023</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>1008202347538</v>
+      </c>
+      <c r="B31">
+        <v>2023</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>1008202347538</v>
+      </c>
+      <c r="B32">
+        <v>2023</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>1008202344987</v>
+      </c>
+      <c r="B33">
+        <v>2023</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>1008202347384</v>
+      </c>
+      <c r="B34">
+        <v>2023</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>1008202345339</v>
+      </c>
+      <c r="B35">
+        <v>2023</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>1008202348839</v>
+      </c>
+      <c r="B36">
+        <v>2023</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>1008202345646</v>
+      </c>
+      <c r="B37">
+        <v>2023</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3">
+        <v>1008202244701</v>
+      </c>
+      <c r="B38">
+        <v>2023</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3">
+        <v>1008202024356</v>
+      </c>
+      <c r="B39">
+        <v>2023</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>1008202033198</v>
+      </c>
+      <c r="B40">
+        <v>2023</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>1008202033198</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>1008202024356</v>
+      </c>
+      <c r="B42">
+        <v>2023</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>1008202242315</v>
+      </c>
+      <c r="B43">
+        <v>2023</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>1008202242315</v>
+      </c>
+      <c r="B44">
+        <v>2023</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>1008202342256</v>
+      </c>
+      <c r="B45">
+        <v>2023</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>1008201828209</v>
+      </c>
+      <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>1008202030283</v>
+      </c>
+      <c r="B47">
+        <v>2023</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>1008202030283</v>
+      </c>
+      <c r="B48">
+        <v>2023</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
         <v>1008202346625</v>
       </c>
-      <c r="B8">
-        <v>2023</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B49">
+        <v>2023</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3">
+        <v>1008202347906</v>
+      </c>
+      <c r="B50">
+        <v>2023</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3">
+        <v>1008202347906</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3">
+        <v>1008202122548</v>
+      </c>
+      <c r="B52">
+        <v>2023</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3">
+        <v>1008202340332</v>
+      </c>
+      <c r="B53">
+        <v>2023</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3">
+        <v>1008202237497</v>
+      </c>
+      <c r="B54">
+        <v>2023</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3">
+        <v>1008202005595</v>
+      </c>
+      <c r="B55">
+        <v>2023</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3">
+        <v>1008202007561</v>
+      </c>
+      <c r="B56">
+        <v>2023</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3">
+        <v>1008202007561</v>
+      </c>
+      <c r="B57">
+        <v>2023</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3">
+        <v>1008202040432</v>
+      </c>
+      <c r="B58">
+        <v>2023</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3">
+        <v>1008202040432</v>
+      </c>
+      <c r="B59">
+        <v>2023</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3">
+        <v>1008201943617</v>
+      </c>
+      <c r="B60">
+        <v>2023</v>
+      </c>
+      <c r="C60">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3">
+        <v>1008202000326</v>
+      </c>
+      <c r="B61">
+        <v>2023</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="3">
+        <v>1008202000326</v>
+      </c>
+      <c r="B62">
+        <v>2023</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3">
+        <v>1008202005339</v>
+      </c>
+      <c r="B63">
+        <v>2023</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="3">
+        <v>1008202005339</v>
+      </c>
+      <c r="B64">
+        <v>2023</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="3">
+        <v>1008202005595</v>
+      </c>
+      <c r="B65">
+        <v>2023</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="3">
+        <v>1008201921443</v>
+      </c>
+      <c r="B66">
+        <v>2023</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="3">
+        <v>1008201926437</v>
+      </c>
+      <c r="B67">
+        <v>2023</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="3">
+        <v>1008201926437</v>
+      </c>
+      <c r="B68">
+        <v>2023</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="3">
+        <v>1008201928770</v>
+      </c>
+      <c r="B69">
+        <v>2023</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="3">
+        <v>1008201928770</v>
+      </c>
+      <c r="B70">
+        <v>2023</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="3">
+        <v>1008201943617</v>
+      </c>
+      <c r="B71">
+        <v>2023</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="3">
+        <v>1008202237497</v>
+      </c>
+      <c r="B72">
+        <v>2023</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="3">
+        <v>1008201906000</v>
+      </c>
+      <c r="B73">
+        <v>2023</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="3">
+        <v>1008201906000</v>
+      </c>
+      <c r="B74">
+        <v>2023</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="3">
+        <v>1008201835302</v>
+      </c>
+      <c r="B75">
+        <v>2023</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="3">
+        <v>1008201835302</v>
+      </c>
+      <c r="B76">
+        <v>2023</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="3">
+        <v>1008201921443</v>
+      </c>
+      <c r="B77">
+        <v>2023</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
